--- a/spreadsheets/Archives/OldForms/last3WForm.xlsx
+++ b/spreadsheets/Archives/OldForms/last3WForm.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\Roper\spreadsheets\Archives\OldForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="5070" xr2:uid="{01F296AA-4847-48AA-BA61-211E4D124F7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="5070" xr2:uid="{FA11D86D-F64F-4DFA-AA01-9A7CE6CCF490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Date Stamp</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3830BB-7304-4497-8EE0-7847F0B10E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D6E770-72DA-4064-B983-4A5990909EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -556,7 +565,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D1EF7F-5B83-4CF4-962E-1F73051EBF92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7C0C5-5C58-433C-8BB6-940AE98DE867}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -668,10 +678,18 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="6">
+        <v>43068</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4"/>
@@ -690,10 +708,18 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="6">
+        <v>43068</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
